--- a/output/LOWVOL/rebalance/rebalance_20250630.xlsx
+++ b/output/LOWVOL/rebalance/rebalance_20250630.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>64.94%</t>
+          <t>11.13%</t>
         </is>
       </c>
     </row>
@@ -6240,7 +6240,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6282,13 +6282,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02586969656958842</v>
+        <v>0.03552533120965762</v>
       </c>
       <c r="C2" t="n">
         <v>0.03623517714478863</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01036548057520021</v>
+        <v>0.000709845935131008</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6303,13 +6303,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02130343192446014</v>
+        <v>0.03176539033062977</v>
       </c>
       <c r="C3" t="n">
         <v>0.03444351764591659</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01314008572145645</v>
+        <v>0.00267812731528682</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6324,17 +6324,17 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.024113357696224</v>
+        <v>0.03186060420451753</v>
       </c>
       <c r="C4" t="n">
         <v>0.03004903776466252</v>
       </c>
       <c r="D4" t="n">
-        <v>0.005935680068438528</v>
+        <v>-0.001811566439855004</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6345,17 +6345,17 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.03036552931601598</v>
       </c>
       <c r="C5" t="n">
         <v>0.02655361390721282</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02655361390721282</v>
+        <v>-0.003811915408803164</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6366,17 +6366,17 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02396349344628243</v>
+        <v>0.02590286508453796</v>
       </c>
       <c r="C6" t="n">
         <v>0.02499221253387007</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001028719087587639</v>
+        <v>-0.0009106525506678911</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6387,17 +6387,17 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.02876291025454424</v>
       </c>
       <c r="C7" t="n">
         <v>0.02471433023585785</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02471433023585785</v>
+        <v>-0.004048580018686385</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6408,17 +6408,17 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.02366263776748988</v>
       </c>
       <c r="C8" t="n">
         <v>0.02349397572722669</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02349397572722669</v>
+        <v>-0.0001686620402631921</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6429,17 +6429,17 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.01786702469195199</v>
       </c>
       <c r="C9" t="n">
         <v>0.0222883821688735</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0222883821688735</v>
+        <v>0.00442135747692151</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6450,17 +6450,17 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.02568103076572505</v>
       </c>
       <c r="C10" t="n">
         <v>0.0219030569245124</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0219030569245124</v>
+        <v>-0.003777973841212642</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6471,17 +6471,17 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02588429262473115</v>
+        <v>0.01889137026082582</v>
       </c>
       <c r="C11" t="n">
         <v>0.021421307211241</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.004462985413490148</v>
+        <v>0.002529936950415188</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6492,17 +6492,17 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.02693020411765295</v>
       </c>
       <c r="C12" t="n">
         <v>0.02137078906378724</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02137078906378724</v>
+        <v>-0.005559415053865702</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6513,17 +6513,17 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.02269046976913125</v>
       </c>
       <c r="C13" t="n">
         <v>0.02125491886828311</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02125491886828311</v>
+        <v>-0.00143555090084814</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6534,13 +6534,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0167745645557834</v>
+        <v>0.01777702363099013</v>
       </c>
       <c r="C14" t="n">
         <v>0.02098624303709669</v>
       </c>
       <c r="D14" t="n">
-        <v>0.004211678481313288</v>
+        <v>0.003209219406106557</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6555,17 +6555,17 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.01417769556537715</v>
       </c>
       <c r="C15" t="n">
         <v>0.02092640537628895</v>
       </c>
       <c r="D15" t="n">
-        <v>0.02092640537628895</v>
+        <v>0.006748709810911802</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6576,17 +6576,17 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.02215546064265343</v>
       </c>
       <c r="C16" t="n">
         <v>0.02045157355736157</v>
       </c>
       <c r="D16" t="n">
-        <v>0.02045157355736157</v>
+        <v>-0.001703887085291858</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6597,17 +6597,17 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02367240423446906</v>
+        <v>0.0183508131760277</v>
       </c>
       <c r="C17" t="n">
         <v>0.02043380844379391</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.003238595790675144</v>
+        <v>0.002082995267766216</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6618,17 +6618,17 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.01720182976422862</v>
       </c>
       <c r="C18" t="n">
         <v>0.02037208902111558</v>
       </c>
       <c r="D18" t="n">
-        <v>0.02037208902111558</v>
+        <v>0.003170259256886961</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6639,17 +6639,17 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02125577772686412</v>
+        <v>0.01873323093444346</v>
       </c>
       <c r="C19" t="n">
         <v>0.02023601135245552</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.001019766374408603</v>
+        <v>0.001502780418012061</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6660,13 +6660,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02339829490700691</v>
+        <v>0.02427305349009206</v>
       </c>
       <c r="C20" t="n">
         <v>0.0202162667061802</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.003182028200826716</v>
+        <v>-0.004056786783911866</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6681,17 +6681,17 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01869642282600991</v>
+        <v>0.02340767716472446</v>
       </c>
       <c r="C21" t="n">
         <v>0.02011158618644161</v>
       </c>
       <c r="D21" t="n">
-        <v>0.001415163360431692</v>
+        <v>-0.003296090978282852</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6702,17 +6702,17 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02354109722854975</v>
+        <v>0.01847087477186253</v>
       </c>
       <c r="C22" t="n">
         <v>0.01985343580044186</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.003687661428107884</v>
+        <v>0.001382561028579334</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6723,17 +6723,17 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>0.01900820970889244</v>
       </c>
       <c r="C23" t="n">
         <v>0.01917712923133248</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01917712923133248</v>
+        <v>0.0001689195224400426</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6744,17 +6744,17 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>0.01844612275878344</v>
       </c>
       <c r="C24" t="n">
         <v>0.01887675661625938</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01887675661625938</v>
+        <v>0.0004306338574759441</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6765,13 +6765,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01905174873122108</v>
+        <v>0.01910450886762376</v>
       </c>
       <c r="C25" t="n">
         <v>0.01861682972927948</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.000434919001941609</v>
+        <v>-0.0004876791383442852</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6786,17 +6786,17 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>0.01906255793549883</v>
       </c>
       <c r="C26" t="n">
         <v>0.01859870628600823</v>
       </c>
       <c r="D26" t="n">
-        <v>0.01859870628600823</v>
+        <v>-0.0004638516494905945</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6807,17 +6807,17 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>0.01959810737895628</v>
       </c>
       <c r="C27" t="n">
         <v>0.01816758351523236</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01816758351523236</v>
+        <v>-0.001430523863723915</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6828,17 +6828,17 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01826036462099868</v>
+        <v>0.0164328359988231</v>
       </c>
       <c r="C28" t="n">
         <v>0.01816382741724876</v>
       </c>
       <c r="D28" t="n">
-        <v>-9.653720374992042e-05</v>
+        <v>0.001730991418425653</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6849,17 +6849,17 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>0.01918404571436557</v>
       </c>
       <c r="C29" t="n">
         <v>0.01811076447455736</v>
       </c>
       <c r="D29" t="n">
-        <v>0.01811076447455736</v>
+        <v>-0.001073281239808214</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6870,17 +6870,17 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>0.01883835452222083</v>
       </c>
       <c r="C30" t="n">
         <v>0.0180026283986073</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0180026283986073</v>
+        <v>-0.000835726123613538</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6891,17 +6891,17 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>0.01807288076793857</v>
       </c>
       <c r="C31" t="n">
         <v>0.01784704877863475</v>
       </c>
       <c r="D31" t="n">
-        <v>0.01784704877863475</v>
+        <v>-0.0002258319893038187</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6912,13 +6912,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01397483687809474</v>
+        <v>0.01681904240571232</v>
       </c>
       <c r="C32" t="n">
         <v>0.01782644510896599</v>
       </c>
       <c r="D32" t="n">
-        <v>0.003851608230871243</v>
+        <v>0.001007402703253668</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6933,17 +6933,17 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>0.01548633996919809</v>
       </c>
       <c r="C33" t="n">
         <v>0.01782421310946368</v>
       </c>
       <c r="D33" t="n">
-        <v>0.01782421310946368</v>
+        <v>0.002337873140265585</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6954,17 +6954,17 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>0.02260007973135222</v>
       </c>
       <c r="C34" t="n">
         <v>0.01773456851694333</v>
       </c>
       <c r="D34" t="n">
-        <v>0.01773456851694333</v>
+        <v>-0.004865511214408893</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6975,17 +6975,17 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>0.016187395742104</v>
       </c>
       <c r="C35" t="n">
         <v>0.0176669411811329</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0176669411811329</v>
+        <v>0.001479545439028902</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6996,17 +6996,17 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01642854598289351</v>
+        <v>0.0226546576839571</v>
       </c>
       <c r="C36" t="n">
         <v>0.01764054676170523</v>
       </c>
       <c r="D36" t="n">
-        <v>0.001212000778811725</v>
+        <v>-0.005014110922251864</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -7017,13 +7017,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01636980436653905</v>
+        <v>0.0149643515397309</v>
       </c>
       <c r="C37" t="n">
         <v>0.01728981423481357</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0009200098682745142</v>
+        <v>0.002325462695082664</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -7038,17 +7038,17 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>0.01330975896215572</v>
       </c>
       <c r="C38" t="n">
         <v>0.01727726327384722</v>
       </c>
       <c r="D38" t="n">
-        <v>0.01727726327384722</v>
+        <v>0.003967504311691499</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -7101,17 +7101,17 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.01961824837448858</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0.0170803708359702</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.002537877538518377</v>
+        <v>0.0170803708359702</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>新增</t>
         </is>
       </c>
     </row>
@@ -7122,13 +7122,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.02372997814228133</v>
+        <v>0.01753993937539526</v>
       </c>
       <c r="C42" t="n">
         <v>0.01706380623612874</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.006666171906152599</v>
+        <v>-0.000476133139266522</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -7143,17 +7143,17 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>0.01788636023239839</v>
       </c>
       <c r="C43" t="n">
         <v>0.01705869894237125</v>
       </c>
       <c r="D43" t="n">
-        <v>0.01705869894237125</v>
+        <v>-0.0008276612900271381</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -7164,17 +7164,17 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>0.01771137753374876</v>
       </c>
       <c r="C44" t="n">
         <v>0.01701710544184581</v>
       </c>
       <c r="D44" t="n">
-        <v>0.01701710544184581</v>
+        <v>-0.0006942720919029498</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -7185,17 +7185,17 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>0.0166019397454537</v>
       </c>
       <c r="C45" t="n">
         <v>0.01698816836044816</v>
       </c>
       <c r="D45" t="n">
-        <v>0.01698816836044816</v>
+        <v>0.000386228614994464</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -7206,17 +7206,17 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>0.01623811421679814</v>
       </c>
       <c r="C46" t="n">
         <v>0.01682717406737987</v>
       </c>
       <c r="D46" t="n">
-        <v>0.01682717406737987</v>
+        <v>0.0005890598505817364</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -7227,17 +7227,17 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>0.01663249320672576</v>
       </c>
       <c r="C47" t="n">
         <v>0.01660982049881208</v>
       </c>
       <c r="D47" t="n">
-        <v>0.01660982049881208</v>
+        <v>-2.267270791368042e-05</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -7248,17 +7248,17 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>0.02037158241692472</v>
       </c>
       <c r="C48" t="n">
         <v>0.0165794241131854</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0165794241131854</v>
+        <v>-0.003792158303739319</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -7269,17 +7269,17 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>0.01756227991488502</v>
       </c>
       <c r="C49" t="n">
         <v>0.01655678198099363</v>
       </c>
       <c r="D49" t="n">
-        <v>0.01655678198099363</v>
+        <v>-0.001005497933891385</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -7311,34 +7311,34 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>0.01570423593856241</v>
       </c>
       <c r="C51" t="n">
         <v>0.01632052409091893</v>
       </c>
       <c r="D51" t="n">
-        <v>0.01632052409091893</v>
+        <v>0.0006162881523565159</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>3714</t>
+          <t>2106</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01465814184008938</v>
+        <v>0.01517032113074602</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01465814184008938</v>
+        <v>-0.01517032113074602</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7349,17 +7349,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>6770</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01215819955810125</v>
+        <v>0.01368528320819418</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01215819955810125</v>
+        <v>-0.01368528320819418</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7370,17 +7370,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>6182</t>
+          <t>1907</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.009639508757960755</v>
+        <v>0.01471640754917615</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.009639508757960755</v>
+        <v>-0.01471640754917615</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7391,607 +7391,19 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6269</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01376996236041344</v>
+        <v>0.01595738893059878</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.01376996236041344</v>
+        <v>-0.01595738893059878</v>
       </c>
       <c r="E55" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>6505</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>0.0116635286862721</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" t="n">
-        <v>-0.0116635286862721</v>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>9904</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>0.01810759794624929</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="n">
-        <v>-0.01810759794624929</v>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>2809</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>0.03425648634274325</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>-0.03425648634274325</v>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>2888</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>0.03962585804597646</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" t="n">
-        <v>-0.03962585804597646</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>2002</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>0.01961699963060927</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" t="n">
-        <v>-0.01961699963060927</v>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>1301</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>0.01341943334295285</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" t="n">
-        <v>-0.01341943334295285</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>1303</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>0.01103944438011034</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="n">
-        <v>-0.01103944438011034</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>1304</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>0.009633953966123571</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>-0.009633953966123571</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>1314</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>0.02298587536757652</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" t="n">
-        <v>-0.02298587536757652</v>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>1326</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>0.01053606147824721</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" t="n">
-        <v>-0.01053606147824721</v>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>1402</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>0.01892250025113355</v>
-      </c>
-      <c r="C66" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" t="n">
-        <v>-0.01892250025113355</v>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>1409</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>0.01577991988820409</v>
-      </c>
-      <c r="C67" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" t="n">
-        <v>-0.01577991988820409</v>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>1440</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>0.02342559205558413</v>
-      </c>
-      <c r="C68" t="n">
-        <v>0</v>
-      </c>
-      <c r="D68" t="n">
-        <v>-0.02342559205558413</v>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>1723</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>0.01427828053968721</v>
-      </c>
-      <c r="C69" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" t="n">
-        <v>-0.01427828053968721</v>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>1904</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>0.01170881136316687</v>
-      </c>
-      <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>-0.01170881136316687</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>2101</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>0.01816333592269155</v>
-      </c>
-      <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" t="n">
-        <v>-0.01816333592269155</v>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>2883</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>0.02674482963773322</v>
-      </c>
-      <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" t="n">
-        <v>-0.02674482963773322</v>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>2106</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>0.012966964948692</v>
-      </c>
-      <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="n">
-        <v>-0.012966964948692</v>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>2227</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>0.005975350759610327</v>
-      </c>
-      <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>-0.005975350759610327</v>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>2258</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>0.0189244590132979</v>
-      </c>
-      <c r="C75" t="n">
-        <v>0</v>
-      </c>
-      <c r="D75" t="n">
-        <v>-0.0189244590132979</v>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>2308</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>0.02667506618245883</v>
-      </c>
-      <c r="C76" t="n">
-        <v>0</v>
-      </c>
-      <c r="D76" t="n">
-        <v>-0.02667506618245883</v>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>2317</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>0.03233140135185573</v>
-      </c>
-      <c r="C77" t="n">
-        <v>0</v>
-      </c>
-      <c r="D77" t="n">
-        <v>-0.03233140135185573</v>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>2330</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>0.03975460008805004</v>
-      </c>
-      <c r="C78" t="n">
-        <v>0</v>
-      </c>
-      <c r="D78" t="n">
-        <v>-0.03975460008805004</v>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>2337</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>0.0129915462505039</v>
-      </c>
-      <c r="C79" t="n">
-        <v>0</v>
-      </c>
-      <c r="D79" t="n">
-        <v>-0.0129915462505039</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>2354</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>0.02388088340287853</v>
-      </c>
-      <c r="C80" t="n">
-        <v>0</v>
-      </c>
-      <c r="D80" t="n">
-        <v>-0.02388088340287853</v>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>2867</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>0.03407817226120771</v>
-      </c>
-      <c r="C81" t="n">
-        <v>0</v>
-      </c>
-      <c r="D81" t="n">
-        <v>-0.03407817226120771</v>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>2882</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>0.03017329099743367</v>
-      </c>
-      <c r="C82" t="n">
-        <v>0</v>
-      </c>
-      <c r="D82" t="n">
-        <v>-0.03017329099743367</v>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>9945</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>0.01620758254589876</v>
-      </c>
-      <c r="C83" t="n">
-        <v>0</v>
-      </c>
-      <c r="D83" t="n">
-        <v>-0.01620758254589876</v>
-      </c>
-      <c r="E83" t="inlineStr">
         <is>
           <t>刪除</t>
         </is>

--- a/output/LOWVOL/rebalance/rebalance_20250630.xlsx
+++ b/output/LOWVOL/rebalance/rebalance_20250630.xlsx
@@ -6282,13 +6282,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03552533120965762</v>
+        <v>0.03552495752577277</v>
       </c>
       <c r="C2" t="n">
         <v>0.03623517714478863</v>
       </c>
       <c r="D2" t="n">
-        <v>0.000709845935131008</v>
+        <v>0.0007102196190158644</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6303,13 +6303,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03176539033062977</v>
+        <v>0.03176440617697351</v>
       </c>
       <c r="C3" t="n">
         <v>0.03444351764591659</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00267812731528682</v>
+        <v>0.002679111468943077</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6324,13 +6324,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03186060420451753</v>
+        <v>0.03185882151750214</v>
       </c>
       <c r="C4" t="n">
         <v>0.03004903776466252</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.001811566439855004</v>
+        <v>-0.001809783752839616</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6345,13 +6345,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03036552931601598</v>
+        <v>0.03036512010396942</v>
       </c>
       <c r="C5" t="n">
         <v>0.02655361390721282</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.003811915408803164</v>
+        <v>-0.003811506196756607</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -6366,13 +6366,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02590286508453796</v>
+        <v>0.02590329161239343</v>
       </c>
       <c r="C6" t="n">
         <v>0.02499221253387007</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0009106525506678911</v>
+        <v>-0.0009110790785233636</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -6387,13 +6387,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02876291025454424</v>
+        <v>0.02876234990524483</v>
       </c>
       <c r="C7" t="n">
         <v>0.02471433023585785</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.004048580018686385</v>
+        <v>-0.004048019669386976</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6408,13 +6408,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02366263776748988</v>
+        <v>0.02366215056589551</v>
       </c>
       <c r="C8" t="n">
         <v>0.02349397572722669</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0001686620402631921</v>
+        <v>-0.000168174838668822</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -6429,13 +6429,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01786702469195199</v>
+        <v>0.01786826013183194</v>
       </c>
       <c r="C9" t="n">
         <v>0.0222883821688735</v>
       </c>
       <c r="D9" t="n">
-        <v>0.00442135747692151</v>
+        <v>0.004420122037041566</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6450,13 +6450,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02568103076572505</v>
+        <v>0.02568084176271304</v>
       </c>
       <c r="C10" t="n">
         <v>0.0219030569245124</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.003777973841212642</v>
+        <v>-0.003777784838200633</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6471,13 +6471,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01889137026082582</v>
+        <v>0.01889338394374868</v>
       </c>
       <c r="C11" t="n">
         <v>0.021421307211241</v>
       </c>
       <c r="D11" t="n">
-        <v>0.002529936950415188</v>
+        <v>0.002527923267492321</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6492,13 +6492,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02693020411765295</v>
+        <v>0.02692897363815368</v>
       </c>
       <c r="C12" t="n">
         <v>0.02137078906378724</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.005559415053865702</v>
+        <v>-0.005558184574366434</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6513,13 +6513,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02269046976913125</v>
+        <v>0.02269084557646268</v>
       </c>
       <c r="C13" t="n">
         <v>0.02125491886828311</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.00143555090084814</v>
+        <v>-0.001435926708179571</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6534,13 +6534,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01777702363099013</v>
+        <v>0.0177772292059566</v>
       </c>
       <c r="C14" t="n">
         <v>0.02098624303709669</v>
       </c>
       <c r="D14" t="n">
-        <v>0.003209219406106557</v>
+        <v>0.003209013831140087</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6555,13 +6555,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01417769556537715</v>
+        <v>0.01417736458813558</v>
       </c>
       <c r="C15" t="n">
         <v>0.02092640537628895</v>
       </c>
       <c r="D15" t="n">
-        <v>0.006748709810911802</v>
+        <v>0.006749040788153374</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6576,13 +6576,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02215546064265343</v>
+        <v>0.02215554951297283</v>
       </c>
       <c r="C16" t="n">
         <v>0.02045157355736157</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.001703887085291858</v>
+        <v>-0.00170397595561126</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0183508131760277</v>
+        <v>0.01835069828103264</v>
       </c>
       <c r="C17" t="n">
         <v>0.02043380844379391</v>
       </c>
       <c r="D17" t="n">
-        <v>0.002082995267766216</v>
+        <v>0.002083110162761272</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6618,13 +6618,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01720182976422862</v>
+        <v>0.0172012557682798</v>
       </c>
       <c r="C18" t="n">
         <v>0.02037208902111558</v>
       </c>
       <c r="D18" t="n">
-        <v>0.003170259256886961</v>
+        <v>0.003170833252835778</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -6639,13 +6639,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01873323093444346</v>
+        <v>0.01873455831809203</v>
       </c>
       <c r="C19" t="n">
         <v>0.02023601135245552</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001502780418012061</v>
+        <v>0.001501453034363488</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6660,13 +6660,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02427305349009206</v>
+        <v>0.02427232944824225</v>
       </c>
       <c r="C20" t="n">
         <v>0.0202162667061802</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.004056786783911866</v>
+        <v>-0.004056062742062053</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6681,13 +6681,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.02340767716472446</v>
+        <v>0.02340811499179596</v>
       </c>
       <c r="C21" t="n">
         <v>0.02011158618644161</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.003296090978282852</v>
+        <v>-0.003296528805354349</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -6702,13 +6702,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01847087477186253</v>
+        <v>0.01847120546176985</v>
       </c>
       <c r="C22" t="n">
         <v>0.01985343580044186</v>
       </c>
       <c r="D22" t="n">
-        <v>0.001382561028579334</v>
+        <v>0.001382230338672012</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6723,13 +6723,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01900820970889244</v>
+        <v>0.01900799714790636</v>
       </c>
       <c r="C23" t="n">
         <v>0.01917712923133248</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0001689195224400426</v>
+        <v>0.0001691320834261191</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6744,13 +6744,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01844612275878344</v>
+        <v>0.01844549405283136</v>
       </c>
       <c r="C24" t="n">
         <v>0.01887675661625938</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0004306338574759441</v>
+        <v>0.0004312625634280247</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6765,13 +6765,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01910450886762376</v>
+        <v>0.01910480085347584</v>
       </c>
       <c r="C25" t="n">
         <v>0.01861682972927948</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.0004876791383442852</v>
+        <v>-0.0004879711241963652</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6786,13 +6786,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01906255793549883</v>
+        <v>0.01906231862320532</v>
       </c>
       <c r="C26" t="n">
         <v>0.01859870628600823</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.0004638516494905945</v>
+        <v>-0.0004636123371970814</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6807,13 +6807,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01959810737895628</v>
+        <v>0.01959717995213344</v>
       </c>
       <c r="C27" t="n">
         <v>0.01816758351523236</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.001430523863723915</v>
+        <v>-0.001429596436901076</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6828,13 +6828,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.0164328359988231</v>
+        <v>0.0164337854728074</v>
       </c>
       <c r="C28" t="n">
         <v>0.01816382741724876</v>
       </c>
       <c r="D28" t="n">
-        <v>0.001730991418425653</v>
+        <v>0.001730041944441353</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6849,13 +6849,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01918404571436557</v>
+        <v>0.01918335420504457</v>
       </c>
       <c r="C29" t="n">
         <v>0.01811076447455736</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.001073281239808214</v>
+        <v>-0.001072589730487218</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6870,13 +6870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01883835452222083</v>
+        <v>0.01883742107203957</v>
       </c>
       <c r="C30" t="n">
         <v>0.0180026283986073</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.000835726123613538</v>
+        <v>-0.0008347926734322726</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -6891,13 +6891,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01807288076793857</v>
+        <v>0.01807352961444252</v>
       </c>
       <c r="C31" t="n">
         <v>0.01784704877863475</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.0002258319893038187</v>
+        <v>-0.0002264808358077679</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -6912,13 +6912,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01681904240571232</v>
+        <v>0.01681865165537241</v>
       </c>
       <c r="C32" t="n">
         <v>0.01782644510896599</v>
       </c>
       <c r="D32" t="n">
-        <v>0.001007402703253668</v>
+        <v>0.001007793453593579</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6933,13 +6933,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01548633996919809</v>
+        <v>0.01548630183423009</v>
       </c>
       <c r="C33" t="n">
         <v>0.01782421310946368</v>
       </c>
       <c r="D33" t="n">
-        <v>0.002337873140265585</v>
+        <v>0.002337911275233586</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6954,13 +6954,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.02260007973135222</v>
+        <v>0.02259962240338669</v>
       </c>
       <c r="C34" t="n">
         <v>0.01773456851694333</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.004865511214408893</v>
+        <v>-0.004865053886443361</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -6975,13 +6975,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.016187395742104</v>
+        <v>0.01618749357891574</v>
       </c>
       <c r="C35" t="n">
         <v>0.0176669411811329</v>
       </c>
       <c r="D35" t="n">
-        <v>0.001479545439028902</v>
+        <v>0.001479447602217163</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -6996,13 +6996,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.0226546576839571</v>
+        <v>0.02265347071740469</v>
       </c>
       <c r="C36" t="n">
         <v>0.01764054676170523</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.005014110922251864</v>
+        <v>-0.00501292395569946</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -7017,13 +7017,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.0149643515397309</v>
+        <v>0.01496579437535566</v>
       </c>
       <c r="C37" t="n">
         <v>0.01728981423481357</v>
       </c>
       <c r="D37" t="n">
-        <v>0.002325462695082664</v>
+        <v>0.002324019859457906</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -7038,13 +7038,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.01330975896215572</v>
+        <v>0.01331139196445988</v>
       </c>
       <c r="C38" t="n">
         <v>0.01727726327384722</v>
       </c>
       <c r="D38" t="n">
-        <v>0.003967504311691499</v>
+        <v>0.003965871309387336</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -7122,13 +7122,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01753993937539526</v>
+        <v>0.01753924003157358</v>
       </c>
       <c r="C42" t="n">
         <v>0.01706380623612874</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.000476133139266522</v>
+        <v>-0.0004754337954448427</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -7143,13 +7143,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.01788636023239839</v>
+        <v>0.01788562250048516</v>
       </c>
       <c r="C43" t="n">
         <v>0.01705869894237125</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.0008276612900271381</v>
+        <v>-0.000826923558113906</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -7164,13 +7164,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.01771137753374876</v>
+        <v>0.01771102210648073</v>
       </c>
       <c r="C44" t="n">
         <v>0.01701710544184581</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.0006942720919029498</v>
+        <v>-0.0006939166646349228</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -7185,13 +7185,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.0166019397454537</v>
+        <v>0.01660126565854679</v>
       </c>
       <c r="C45" t="n">
         <v>0.01698816836044816</v>
       </c>
       <c r="D45" t="n">
-        <v>0.000386228614994464</v>
+        <v>0.0003869027019013684</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -7206,13 +7206,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.01623811421679814</v>
+        <v>0.01623814520280405</v>
       </c>
       <c r="C46" t="n">
         <v>0.01682717406737987</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0005890598505817364</v>
+        <v>0.000589028864575819</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.01663249320672576</v>
+        <v>0.01663204132620498</v>
       </c>
       <c r="C47" t="n">
         <v>0.01660982049881208</v>
       </c>
       <c r="D47" t="n">
-        <v>-2.267270791368042e-05</v>
+        <v>-2.222082739290407e-05</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -7248,13 +7248,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.02037158241692472</v>
+        <v>0.02037228064391687</v>
       </c>
       <c r="C48" t="n">
         <v>0.0165794241131854</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.003792158303739319</v>
+        <v>-0.003792856530731477</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -7269,13 +7269,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.01756227991488502</v>
+        <v>0.01756180827692183</v>
       </c>
       <c r="C49" t="n">
         <v>0.01655678198099363</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.001005497933891385</v>
+        <v>-0.001005026295928205</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -7311,13 +7311,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.01570423593856241</v>
+        <v>0.01570512181355781</v>
       </c>
       <c r="C51" t="n">
         <v>0.01632052409091893</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0006162881523565159</v>
+        <v>0.0006154022773611212</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -7332,13 +7332,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01517032113074602</v>
+        <v>0.01517132499448347</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01517032113074602</v>
+        <v>-0.01517132499448347</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7353,13 +7353,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01368528320819418</v>
+        <v>0.0136855041554114</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01368528320819418</v>
+        <v>-0.0136855041554114</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7374,13 +7374,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01471640754917615</v>
+        <v>0.01471707905869959</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01471640754917615</v>
+        <v>-0.01471707905869959</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7395,13 +7395,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01595738893059878</v>
+        <v>0.01595922867096307</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.01595738893059878</v>
+        <v>-0.01595922867096307</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>

--- a/output/LOWVOL/rebalance/rebalance_20250630.xlsx
+++ b/output/LOWVOL/rebalance/rebalance_20250630.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>11.13%</t>
+          <t>11.31%</t>
         </is>
       </c>
     </row>
@@ -6282,13 +6282,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03552495752577277</v>
+        <v>0.0358012062768646</v>
       </c>
       <c r="C2" t="n">
         <v>0.03623517714478863</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0007102196190158644</v>
+        <v>0.000433970867924037</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6303,13 +6303,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03176440617697351</v>
+        <v>0.03201206724802712</v>
       </c>
       <c r="C3" t="n">
         <v>0.03444351764591659</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002679111468943077</v>
+        <v>0.002431450397889473</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6324,13 +6324,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03185882151750214</v>
+        <v>0.03210802051358169</v>
       </c>
       <c r="C4" t="n">
         <v>0.03004903776466252</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.001809783752839616</v>
+        <v>-0.002058982748919167</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6345,13 +6345,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03036512010396942</v>
+        <v>0.03060133549024677</v>
       </c>
       <c r="C5" t="n">
         <v>0.02655361390721282</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.003811506196756607</v>
+        <v>-0.004047721583033952</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -6366,13 +6366,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02590329161239343</v>
+        <v>0.02610401604929256</v>
       </c>
       <c r="C6" t="n">
         <v>0.02499221253387007</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0009110790785233636</v>
+        <v>-0.001111803515422491</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -6387,13 +6387,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02876234990524483</v>
+        <v>0.02898627115025863</v>
       </c>
       <c r="C7" t="n">
         <v>0.02471433023585785</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.004048019669386976</v>
+        <v>-0.004271940914400783</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6408,13 +6408,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02366215056589551</v>
+        <v>0.02384639205104251</v>
       </c>
       <c r="C8" t="n">
         <v>0.02349397572722669</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.000168174838668822</v>
+        <v>-0.0003524163238158191</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -6429,13 +6429,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01786826013183194</v>
+        <v>0.01692812040763399</v>
       </c>
       <c r="C9" t="n">
         <v>0.0222883821688735</v>
       </c>
       <c r="D9" t="n">
-        <v>0.004420122037041566</v>
+        <v>0.005360261761239511</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6450,13 +6450,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02568084176271304</v>
+        <v>0.02588045905667121</v>
       </c>
       <c r="C10" t="n">
         <v>0.0219030569245124</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.003777784838200633</v>
+        <v>-0.003977402132158803</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6471,13 +6471,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01889338394374868</v>
+        <v>0.01903807284917269</v>
       </c>
       <c r="C11" t="n">
         <v>0.021421307211241</v>
       </c>
       <c r="D11" t="n">
-        <v>0.002527923267492321</v>
+        <v>0.002383234362068314</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6492,13 +6492,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02692897363815368</v>
+        <v>0.02713933297353914</v>
       </c>
       <c r="C12" t="n">
         <v>0.02137078906378724</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.005558184574366434</v>
+        <v>-0.005768543909751896</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6513,13 +6513,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02269084557646268</v>
+        <v>0.02286667459704894</v>
       </c>
       <c r="C13" t="n">
         <v>0.02125491886828311</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.001435926708179571</v>
+        <v>-0.001611755728765828</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6534,13 +6534,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0177772292059566</v>
+        <v>0.01791507266310174</v>
       </c>
       <c r="C14" t="n">
         <v>0.02098624303709669</v>
       </c>
       <c r="D14" t="n">
-        <v>0.003209013831140087</v>
+        <v>0.003071170373994948</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6555,13 +6555,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01417736458813558</v>
+        <v>0.01428779370053191</v>
       </c>
       <c r="C15" t="n">
         <v>0.02092640537628895</v>
       </c>
       <c r="D15" t="n">
-        <v>0.006749040788153374</v>
+        <v>0.006638611675757043</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6576,13 +6576,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02215554951297283</v>
+        <v>0.02232751081039772</v>
       </c>
       <c r="C16" t="n">
         <v>0.02045157355736157</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.00170397595561126</v>
+        <v>-0.001875937253036152</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01835069828103264</v>
+        <v>0.01849331802104551</v>
       </c>
       <c r="C17" t="n">
         <v>0.02043380844379391</v>
       </c>
       <c r="D17" t="n">
-        <v>0.002083110162761272</v>
+        <v>0.001940490422748405</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6618,13 +6618,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0172012557682798</v>
+        <v>0.01733541207805089</v>
       </c>
       <c r="C18" t="n">
         <v>0.02037208902111558</v>
       </c>
       <c r="D18" t="n">
-        <v>0.003170833252835778</v>
+        <v>0.003036676943064687</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -6639,13 +6639,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01873455831809203</v>
+        <v>0.01887870547801754</v>
       </c>
       <c r="C19" t="n">
         <v>0.02023601135245552</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001501453034363488</v>
+        <v>0.001357305874437977</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6660,13 +6660,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02427232944824225</v>
+        <v>0.02345627891402152</v>
       </c>
       <c r="C20" t="n">
         <v>0.0202162667061802</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.004056062742062053</v>
+        <v>-0.003240012207841324</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6681,13 +6681,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.02340811499179596</v>
+        <v>0.02358945152941277</v>
       </c>
       <c r="C21" t="n">
         <v>0.02011158618644161</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.003296528805354349</v>
+        <v>-0.003477865342971169</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -6702,13 +6702,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01847120546176985</v>
+        <v>0.01861431196570558</v>
       </c>
       <c r="C22" t="n">
         <v>0.01985343580044186</v>
       </c>
       <c r="D22" t="n">
-        <v>0.001382230338672012</v>
+        <v>0.001239123834736282</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6723,13 +6723,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01900799714790636</v>
+        <v>0.01915581962419423</v>
       </c>
       <c r="C23" t="n">
         <v>0.01917712923133248</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0001691320834261191</v>
+        <v>2.130960713824653e-05</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6744,13 +6744,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01844549405283136</v>
+        <v>0.01858936773870366</v>
       </c>
       <c r="C24" t="n">
         <v>0.01887675661625938</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0004312625634280247</v>
+        <v>0.0002873888775557186</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6765,13 +6765,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01910480085347584</v>
+        <v>0.01925286660246677</v>
       </c>
       <c r="C25" t="n">
         <v>0.01861682972927948</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.0004879711241963652</v>
+        <v>-0.0006360368731872929</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6786,13 +6786,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01906231862320532</v>
+        <v>0.01921058989670858</v>
       </c>
       <c r="C26" t="n">
         <v>0.01859870628600823</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.0004636123371970814</v>
+        <v>-0.000611883610700345</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6807,13 +6807,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01959717995213344</v>
+        <v>0.0197502981962182</v>
       </c>
       <c r="C27" t="n">
         <v>0.01816758351523236</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.001429596436901076</v>
+        <v>-0.00158271468098584</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6828,13 +6828,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.0164337854728074</v>
+        <v>0.01581782569943379</v>
       </c>
       <c r="C28" t="n">
         <v>0.01816382741724876</v>
       </c>
       <c r="D28" t="n">
-        <v>0.001730041944441353</v>
+        <v>0.002346001717814968</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6849,13 +6849,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01918335420504457</v>
+        <v>0.0193330210995497</v>
       </c>
       <c r="C29" t="n">
         <v>0.01811076447455736</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.001072589730487218</v>
+        <v>-0.001222256624992347</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6870,13 +6870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01883742107203957</v>
+        <v>0.01898464541221182</v>
       </c>
       <c r="C30" t="n">
         <v>0.0180026283986073</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.0008347926734322726</v>
+        <v>-0.0009820170136045255</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -6891,13 +6891,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01807352961444252</v>
+        <v>0.01821322730452829</v>
       </c>
       <c r="C31" t="n">
         <v>0.01784704877863475</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.0002264808358077679</v>
+        <v>-0.0003661785258935353</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -6912,13 +6912,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01681865165537241</v>
+        <v>0.01694965215081646</v>
       </c>
       <c r="C32" t="n">
         <v>0.01782644510896599</v>
       </c>
       <c r="D32" t="n">
-        <v>0.001007793453593579</v>
+        <v>0.0008767929581495228</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6933,13 +6933,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01548630183423009</v>
+        <v>0.01560660049694879</v>
       </c>
       <c r="C33" t="n">
         <v>0.01782421310946368</v>
       </c>
       <c r="D33" t="n">
-        <v>0.002337911275233586</v>
+        <v>0.002217612612514887</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6954,13 +6954,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.02259962240338669</v>
+        <v>0.02277558262752436</v>
       </c>
       <c r="C34" t="n">
         <v>0.01773456851694333</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.004865053886443361</v>
+        <v>-0.005041014110581027</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -6975,13 +6975,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01618749357891574</v>
+        <v>0.01558182346620979</v>
       </c>
       <c r="C35" t="n">
         <v>0.0176669411811329</v>
       </c>
       <c r="D35" t="n">
-        <v>0.001479447602217163</v>
+        <v>0.002085117714923106</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -6996,13 +6996,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.02265347071740469</v>
+        <v>0.0228305844099946</v>
       </c>
       <c r="C36" t="n">
         <v>0.01764054676170523</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.00501292395569946</v>
+        <v>-0.005190037648289365</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -7017,13 +7017,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01496579437535566</v>
+        <v>0.01436949092833971</v>
       </c>
       <c r="C37" t="n">
         <v>0.01728981423481357</v>
       </c>
       <c r="D37" t="n">
-        <v>0.002324019859457906</v>
+        <v>0.002920323306473859</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -7038,13 +7038,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.01331139196445988</v>
+        <v>0.01253524575110197</v>
       </c>
       <c r="C38" t="n">
         <v>0.01727726327384722</v>
       </c>
       <c r="D38" t="n">
-        <v>0.003965871309387336</v>
+        <v>0.004742017522745253</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -7122,13 +7122,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01753924003157358</v>
+        <v>0.01767614730898035</v>
       </c>
       <c r="C42" t="n">
         <v>0.01706380623612874</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.0004754337954448427</v>
+        <v>-0.0006123410728516125</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -7143,13 +7143,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.01788562250048516</v>
+        <v>0.01802525832745288</v>
       </c>
       <c r="C43" t="n">
         <v>0.01705869894237125</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.000826923558113906</v>
+        <v>-0.0009665593850816251</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -7164,13 +7164,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.01771102210648073</v>
+        <v>0.01784891678534967</v>
       </c>
       <c r="C44" t="n">
         <v>0.01701710544184581</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.0006939166646349228</v>
+        <v>-0.000831811343503859</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -7185,13 +7185,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.01660126565854679</v>
+        <v>0.01673086356085778</v>
       </c>
       <c r="C45" t="n">
         <v>0.01698816836044816</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0003869027019013684</v>
+        <v>0.0002573047995903834</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -7206,13 +7206,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.01623814520280405</v>
+        <v>0.01636421271323256</v>
       </c>
       <c r="C46" t="n">
         <v>0.01682717406737987</v>
       </c>
       <c r="D46" t="n">
-        <v>0.000589028864575819</v>
+        <v>0.00046296135414731</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.01663204132620498</v>
+        <v>0.01676165428770612</v>
       </c>
       <c r="C47" t="n">
         <v>0.01660982049881208</v>
       </c>
       <c r="D47" t="n">
-        <v>-2.222082739290407e-05</v>
+        <v>-0.0001518337888940409</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -7248,13 +7248,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.02037228064391687</v>
+        <v>0.02052977972225635</v>
       </c>
       <c r="C48" t="n">
         <v>0.0165794241131854</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.003792856530731477</v>
+        <v>-0.003950355609070956</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -7269,13 +7269,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.01756180827692183</v>
+        <v>0.01769866133588381</v>
       </c>
       <c r="C49" t="n">
         <v>0.01655678198099363</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.001005026295928205</v>
+        <v>-0.001141879354890178</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -7311,13 +7311,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.01570512181355781</v>
+        <v>0.01513908919806459</v>
       </c>
       <c r="C51" t="n">
         <v>0.01632052409091893</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0006154022773611212</v>
+        <v>0.001181434892854343</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -7332,13 +7332,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01517132499448347</v>
+        <v>0.01454892141754135</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01517132499448347</v>
+        <v>-0.01454892141754135</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7353,13 +7353,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.0136855041554114</v>
+        <v>0.01379155747211379</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.0136855041554114</v>
+        <v>-0.01379155747211379</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7374,13 +7374,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01471707905869959</v>
+        <v>0.01483068909936675</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01471707905869959</v>
+        <v>-0.01483068909936675</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7395,13 +7395,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01595922867096307</v>
+        <v>0.01488778354257835</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.01595922867096307</v>
+        <v>-0.01488778354257835</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
